--- a/Contributions.xlsx
+++ b/Contributions.xlsx
@@ -55,9 +55,6 @@
     <t>Outliers</t>
   </si>
   <si>
-    <t>Zhan/ Diego</t>
-  </si>
-  <si>
     <t>Normality tests</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>Feasibility of ML models</t>
+  </si>
+  <si>
+    <t>Liu / Diego</t>
   </si>
   <si>
     <t>PCA (explained var, …)</t>
@@ -587,7 +587,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -596,7 +596,7 @@
         <v>3.2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>4</v>
@@ -608,7 +608,7 @@
         <v>3.3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>4</v>
@@ -620,10 +620,10 @@
         <v>3.4</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
